--- a/tableClient/question3.xlsx
+++ b/tableClient/question3.xlsx
@@ -3488,7 +3488,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
